--- a/data/trans_bre/P16A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A_R-Estudios-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>1.321952317794254</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.9530663183416703</v>
+        <v>0.95306631834167</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.038728368440005</v>
+        <v>6.182884583914009</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>10.39757251465661</v>
+        <v>9.914108626278491</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.92052191140268</v>
+        <v>11.09472671448412</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12.6829080590855</v>
+        <v>13.01378160207145</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5897605958304551</v>
+        <v>0.6085402508490181</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8044191452934746</v>
+        <v>0.7567865391766542</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8630519431154213</v>
+        <v>0.8552287003966765</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.6373417614873435</v>
+        <v>0.6536166116701445</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.45617305349769</v>
+        <v>11.41961620587879</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.98509223601011</v>
+        <v>16.38729596542618</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18.48464127497483</v>
+        <v>18.12248908040334</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20.40543404606333</v>
+        <v>20.61389295282876</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.504609054290626</v>
+        <v>1.531879583948398</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.831262779408693</v>
+        <v>1.730394357635245</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.005011415118438</v>
+        <v>1.968282160752</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.347808428725521</v>
+        <v>1.335855341335122</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>7.312523807947868</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6.818999865211602</v>
+        <v>6.818999865211599</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.548804131227691</v>
@@ -749,7 +749,7 @@
         <v>1.419152974851898</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.9306902674078271</v>
+        <v>0.9306902674078268</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.157490973236729</v>
+        <v>3.014857763341776</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.571869064667293</v>
+        <v>4.545560865256324</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.356908639975402</v>
+        <v>5.328350286248869</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5.02562602124268</v>
+        <v>5.093613064852365</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8733599776592794</v>
+        <v>0.8248357246622459</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8089274660122331</v>
+        <v>0.8285308158308954</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9162971132374536</v>
+        <v>0.9382289382652784</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.603655925146411</v>
+        <v>0.6226056639906443</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.26711167656063</v>
+        <v>6.046382499969558</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.210685928970845</v>
+        <v>8.221024217911479</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.129285854270007</v>
+        <v>9.090163063698897</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.447006911679695</v>
+        <v>8.544196084256056</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.699703868491656</v>
+        <v>2.601711820834616</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.977579526419057</v>
+        <v>1.959551152140388</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.043579803937738</v>
+        <v>2.108880770097403</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.296612835578043</v>
+        <v>1.318830872478235</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.5457319191512201</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.5264919643196865</v>
+        <v>0.5264919643196867</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.385509712316463</v>
+        <v>-0.3816799172616038</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.573308715072419</v>
+        <v>-2.548109694719735</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.4665154499472713</v>
+        <v>-0.5810484206625919</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5253572931209701</v>
+        <v>0.2604956611458513</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1077503143187614</v>
+        <v>-0.1297941514796747</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3512592604248575</v>
+        <v>-0.4167443762868493</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1264046153385991</v>
+        <v>-0.131764045047571</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.02463151079987529</v>
+        <v>0.02694402611437108</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.113183618216331</v>
+        <v>5.338082726468294</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.547471521542104</v>
+        <v>4.39155112504148</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.84131956508652</v>
+        <v>5.223806860247637</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.296855860856812</v>
+        <v>5.236045128637843</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.711167958351462</v>
+        <v>1.814403832513046</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.429730918268572</v>
+        <v>1.304043171649938</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.72198459339989</v>
+        <v>1.859487106341715</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.114750798963371</v>
+        <v>1.122254695340154</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>8.906918455547221</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8.810653205795784</v>
+        <v>8.810653205795782</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.268962804296511</v>
@@ -949,7 +949,7 @@
         <v>1.421444134835802</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>1.015998904778824</v>
+        <v>1.015998904778823</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.987055860302084</v>
+        <v>4.940478127292662</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.419773740641721</v>
+        <v>7.457959399922939</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.277067517172989</v>
+        <v>7.451007121990153</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7.404122020845737</v>
+        <v>7.53105634203534</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8916595422727565</v>
+        <v>0.9124182974502932</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.011796429473818</v>
+        <v>1.02380356649134</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1.049066075267025</v>
+        <v>1.098659999221355</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.7894549473311365</v>
+        <v>0.8123871161818406</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.545783346431077</v>
+        <v>7.573051846059377</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.51373515858206</v>
+        <v>10.53540393972165</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.34876952762536</v>
+        <v>10.52472268973225</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10.24763322453525</v>
+        <v>10.26996372255932</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.741492017328536</v>
+        <v>1.707777203923324</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.760803264177632</v>
+        <v>1.788614356348528</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.840088093386391</v>
+        <v>1.904670287150521</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.288401513097623</v>
+        <v>1.328179577190578</v>
       </c>
     </row>
     <row r="16">
